--- a/Output Data Structure.xlsx
+++ b/Output Data Structure.xlsx
@@ -8780,43 +8780,43 @@
           <t>https://insights.blackcoffer.com/impacts-of-covid-19-on-vegetable-vendors-and-food-stalls/</t>
         </is>
       </c>
-      <c r="C171" t="n">
+      <c r="C171" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E171" s="0" t="n">
         <v>0.3142857053061227</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F171" s="0" t="n">
         <v>0.02606635064913187</v>
       </c>
-      <c r="G171" t="n">
+      <c r="G171" s="0" t="n">
         <v>20.09523809523809</v>
       </c>
-      <c r="H171" t="n">
+      <c r="H171" s="0" t="n">
         <v>0.3412322274881517</v>
       </c>
-      <c r="I171" t="n">
+      <c r="I171" s="0" t="n">
         <v>8.1745881290905</v>
       </c>
-      <c r="J171" t="n">
+      <c r="J171" s="0" t="n">
         <v>20.09523809523809</v>
       </c>
-      <c r="K171" t="n">
+      <c r="K171" s="0" t="n">
         <v>144</v>
       </c>
-      <c r="L171" t="n">
+      <c r="L171" s="0" t="n">
         <v>422</v>
       </c>
-      <c r="M171" t="n">
+      <c r="M171" s="0" t="n">
         <v>929</v>
       </c>
-      <c r="N171" t="n">
+      <c r="N171" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O171" t="n">
+      <c r="O171" s="0" t="n">
         <v>6.943127962085308</v>
       </c>
     </row>
